--- a/황현택_2019124206.xlsx
+++ b/황현택_2019124206.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhtbo\OneDrive\바탕 화면\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB566DA-266B-482B-ABFA-3D9747F328A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9183279-3CAD-45A3-BBDD-49123DE64874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="58">
   <si>
     <t>w</t>
   </si>
@@ -165,13 +165,104 @@
   <si>
     <t>15,0</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>함수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴리스틱 종류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diagonal distance</t>
+  </si>
+  <si>
+    <t>Manhattan distance</t>
+  </si>
+  <si>
+    <t>Euclidean distance</t>
+  </si>
+  <si>
+    <t>적합성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 방법</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>h(n) = Cost * (abs(n.x-goal.x) + abs(n.y-goal.y))</t>
+  </si>
+  <si>
+    <t>h(n) = Cost * max(abs(n.x-goal.x), abs(n.y-goal.y))</t>
+  </si>
+  <si>
+    <t>h(n) = Cost * sqrt((n.x-goal.x)^2 + (n.y-goal.y)^2)</t>
+  </si>
+  <si>
+    <t>이동 가능 방향이 4방향일 경우, 대각선로 뚫고 갈 수 없기 때문에 맨해튼 거리가 적합하다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 가능 방향이 8방향일 경우, 대각선으로 갈 수 있다면 맨해튼거리로 가는 것보다 빠르기 때문에 적합하다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 가능 방향이 전방향일 경우, 유클라디안 거리가 적합할 수 있으나, 탐색하는 데 오래 걸린다는 단점이 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>탐색하는 시간은 얼마 안 걸리지만, 최적의 거리는 아니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>탐색하는 시간도 얼마 안 걸렸고, 맨해튼 거리에 비해 거리가 짧아졌다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거리는 짧지만, 탐색하는 데 오래 걸렸다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>심화 예제 &lt;스타크래프트&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.codetd.com/ko/article/6289553</t>
+  </si>
+  <si>
+    <t>이미지 출처</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.growingwiththeweb.com/2012/06/a-pathfinding-algorithm.html</t>
+  </si>
+  <si>
+    <t>스타크래프트의 유닛은 16방향으로 움직일 수 있다. 
+이동할 수 있는 방향이 다양하므로 맨해튼거리는 적합하지 않고,
+ 대각선 거리 또는 유클리디안 거리를 선택하는 것이 적합하다.
+ 기본적으로 유닛은 일정 영역 안에서 최단거리를 검색하게 되는데 이 때 유클라디안을 사용하면 적합할 것 같고, 
+그 밖에 장애물이 가로막고 있을 땐 비교적 탐색시간이 적은 대각선 거리를 사용하면 될 것 같다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.clien.net/service/board/park/14602883</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +277,21 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -227,10 +333,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -247,6 +371,527 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1371600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16EB9978-01A6-47AB-AC2F-98F246E63EE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16616362" y="4867275"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3073190</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1400175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E20DADFE-6238-4084-9CEE-62492F725B44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6486525" y="2085975"/>
+          <a:ext cx="2292140" cy="1314450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5123" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{635A4EC3-4641-4A28-8E6D-1DC56F1F69AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6896100" y="504825"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3190875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1470207</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="그림 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B13AB1F-455F-4AFC-A881-D3301FB471FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7572375" y="523876"/>
+          <a:ext cx="2514600" cy="1451156"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3124200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1432813</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="그림 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73910B1D-3533-4677-8DAF-77B957B1EA96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7667625" y="3514725"/>
+          <a:ext cx="2352675" cy="1413763"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3295650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1461241</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="그림 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25209F66-4F58-4241-B302-D42C7B2685B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14954251" y="523875"/>
+          <a:ext cx="3200399" cy="1442191"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3267075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1476815</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="그림 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78CC44A3-4213-42A9-ACBF-29406E28C3BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14859000" y="2000251"/>
+          <a:ext cx="3267075" cy="1476814"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3295650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1466059</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="그림 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BD63B08-D5CB-470E-BC0A-7023C4D0F525}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14859000" y="3495676"/>
+          <a:ext cx="3295650" cy="1466058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2333625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="그림 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB61BD01-5586-415C-9CB5-2B964B63BB22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="990600" y="5543550"/>
+          <a:ext cx="2200275" cy="2200275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3322244</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2276475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="그림 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{322A36D8-ACB7-4402-93AE-E3347B853485}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3314700" y="5600700"/>
+          <a:ext cx="2436419" cy="2085975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3676651</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6210301</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2204299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="그림 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87C00F65-4C56-487C-A015-22A1D88FF57B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6105526" y="5638801"/>
+          <a:ext cx="2533650" cy="1975698"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1042,8 +1687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1393,13 +2038,137 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="19.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="27.75" style="3" customWidth="1"/>
+    <col min="7" max="7" width="44" style="3" customWidth="1"/>
+    <col min="8" max="11" width="28.625" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="2:8" ht="194.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/황현택_2019124206.xlsx
+++ b/황현택_2019124206.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhtbo\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hwanghyeontaeg/Documents/GitHub/AI_Programming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9183279-3CAD-45A3-BBDD-49123DE64874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E75F692-632E-3C41-93CE-96F42ED37A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="66">
   <si>
     <t>w</t>
   </si>
@@ -193,9 +193,6 @@
   </si>
   <si>
     <t>h(n) = Cost * (abs(n.x-goal.x) + abs(n.y-goal.y))</t>
-  </si>
-  <si>
-    <t>h(n) = Cost * max(abs(n.x-goal.x), abs(n.y-goal.y))</t>
   </si>
   <si>
     <t>h(n) = Cost * sqrt((n.x-goal.x)^2 + (n.y-goal.y)^2)</t>
@@ -257,12 +254,48 @@
   <si>
     <t>https://www.clien.net/service/board/park/14602883</t>
   </si>
+  <si>
+    <t>4,11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>h(n) = Cost * max(abs(n.x-goal.x), abs(n.y-goal.y))</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,9 +374,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -355,6 +385,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1183,9 +1216,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -1217,7 +1250,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1231,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1251,7 +1284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1271,7 +1304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1291,7 +1324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1299,7 +1332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1319,7 +1352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1342,7 +1375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1362,7 +1395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1379,7 +1412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1412,13 +1445,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView zoomScale="176" workbookViewId="0">
+      <selection activeCell="F11" activeCellId="15" sqref="D2 E2 F2 F3 F4 F5 F6 G6 G7 H7 H8 H9 H10 H11 G11 F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -1450,7 +1483,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1470,7 +1503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1493,7 +1526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1516,7 +1549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1539,7 +1572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1553,7 +1586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1579,7 +1612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1605,7 +1638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1628,7 +1661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1648,7 +1681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1687,13 +1720,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView zoomScale="188" workbookViewId="0">
+      <selection activeCell="F11" activeCellId="15" sqref="D2 E2 F2 F3 F4 F5 F6 G6 G7 H7 H8 H9 H10 H11 G11 F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -1725,7 +1758,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1744,11 +1777,17 @@
       <c r="G2" t="s">
         <v>16</v>
       </c>
+      <c r="H2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
       <c r="J2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1780,7 +1819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1802,17 +1841,29 @@
       <c r="G4" t="s">
         <v>20</v>
       </c>
+      <c r="H4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
       <c r="J4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
       <c r="E5" t="s">
         <v>22</v>
       </c>
@@ -1832,10 +1883,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
       <c r="D6" t="s">
         <v>25</v>
       </c>
@@ -1851,11 +1905,14 @@
       <c r="H6" t="s">
         <v>25</v>
       </c>
+      <c r="I6" t="s">
+        <v>60</v>
+      </c>
       <c r="J6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1884,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1906,11 +1963,14 @@
       <c r="H8" t="s">
         <v>27</v>
       </c>
+      <c r="I8" t="s">
+        <v>64</v>
+      </c>
       <c r="K8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1936,7 +1996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1956,7 +2016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1999,9 +2059,9 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5">
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2015,7 +2075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -2041,125 +2101,125 @@
   <dimension ref="B2:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="19.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="84.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="27.75" style="3" customWidth="1"/>
-    <col min="7" max="7" width="44" style="3" customWidth="1"/>
-    <col min="8" max="11" width="28.625" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="44" style="2" customWidth="1"/>
+    <col min="8" max="11" width="28.6640625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="2:8" ht="23.25" customHeight="1">
+      <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="3" t="s">
+    </row>
+    <row r="3" spans="2:8" ht="117.75" customHeight="1">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3"/>
-      <c r="F3" s="6" t="s">
+    <row r="4" spans="2:8" ht="117.75" customHeight="1">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="5" t="s">
+    <row r="5" spans="2:8" ht="117.75" customHeight="1">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="6" t="s">
+    <row r="7" spans="2:8">
+      <c r="C7" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="2:8" ht="194.25" customHeight="1">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="2:8" ht="194.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="7" t="s">
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="2" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/황현택_2019124206.xlsx
+++ b/황현택_2019124206.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hwanghyeontaeg/Documents/GitHub/AI_Programming/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhtbo\OneDrive\문서\GitHub\AI_Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E75F692-632E-3C41-93CE-96F42ED37A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433FAABB-0056-4282-ABC7-BF7AE3999B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
@@ -295,7 +295,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1216,9 +1216,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1445,13 +1445,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView zoomScale="176" workbookViewId="0">
-      <selection activeCell="F11" activeCellId="15" sqref="D2 E2 F2 F3 F4 F5 F6 G6 G7 H7 H8 H9 H10 H11 G11 F11"/>
+    <sheetView tabSelected="1" zoomScale="176" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1721,12 +1721,12 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView zoomScale="188" workbookViewId="0">
-      <selection activeCell="F11" activeCellId="15" sqref="D2 E2 F2 F3 F4 F5 F6 G6 G7 H7 H8 H9 H10 H11 G11 F11"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2059,9 +2059,9 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -2100,24 +2100,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="84.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="44" style="2" customWidth="1"/>
-    <col min="8" max="11" width="28.6640625" style="2" customWidth="1"/>
+    <col min="8" max="11" width="28.625" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="23.25" customHeight="1">
+    <row r="2" spans="2:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="117.75" customHeight="1">
+    <row r="3" spans="2:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="117.75" customHeight="1">
+    <row r="4" spans="2:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="117.75" customHeight="1">
+    <row r="5" spans="2:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -2189,35 +2189,35 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C7" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="2:8" ht="194.25" customHeight="1">
+    <row r="8" spans="2:8" ht="194.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>56</v>
       </c>
